--- a/excel/cantilever.xlsx
+++ b/excel/cantilever.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\LATEX-article\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E44D60-5573-46E6-AD3F-BF9DE6E5D330}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3ED138-C639-434D-9553-499208E2AD12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="13575" firstSheet="3" activeTab="8" xr2:uid="{2DC84420-9821-461A-8C12-3DE9A727EC52}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="13575" firstSheet="3" activeTab="7" xr2:uid="{2DC84420-9821-461A-8C12-3DE9A727EC52}"/>
   </bookViews>
   <sheets>
     <sheet name="gauss13-penalty" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="RK-HR" sheetId="7" r:id="rId7"/>
     <sheet name="efficiency" sheetId="8" r:id="rId8"/>
     <sheet name="np-efficiency" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="efficiency (2)" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>logh</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +109,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,8 +151,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,6 +573,161 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E30C38-62D8-48C2-888E-A7BCA1C062EE}">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>13.3</v>
+      </c>
+      <c r="C3">
+        <v>5.26</v>
+      </c>
+      <c r="D3">
+        <v>1.77</v>
+      </c>
+      <c r="E3">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>13.3</v>
+      </c>
+      <c r="C4">
+        <v>5.26</v>
+      </c>
+      <c r="D4">
+        <v>1.77</v>
+      </c>
+      <c r="E4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>13.3</v>
+      </c>
+      <c r="C5">
+        <v>5.26</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.81</v>
+      </c>
+      <c r="C6">
+        <v>1.48</v>
+      </c>
+      <c r="D6">
+        <v>1.61</v>
+      </c>
+      <c r="E6">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1.81</v>
+      </c>
+      <c r="C7">
+        <v>1.48</v>
+      </c>
+      <c r="D7">
+        <v>1.61</v>
+      </c>
+      <c r="E7">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1.81</v>
+      </c>
+      <c r="C8">
+        <v>1.48</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1.81</v>
+      </c>
+      <c r="C9">
+        <v>1.48</v>
+      </c>
+      <c r="D9">
+        <v>2.7</v>
+      </c>
+      <c r="E9">
+        <v>20.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A70D2A2-9CD5-4827-B9C4-06A46C34136D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1188,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A670027B-B0BC-4F32-BF63-09F10312E0C7}">
   <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1218,124 +1380,125 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>13.3</v>
-      </c>
-      <c r="C3">
-        <v>5.26</v>
-      </c>
-      <c r="D3">
-        <v>1.77</v>
-      </c>
-      <c r="E3">
-        <v>8.6</v>
+      <c r="B3" s="1">
+        <v>8.2608695652173907</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.2670807453416146</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0993788819875776</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.341614906832298</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>13.3</v>
-      </c>
-      <c r="C4">
-        <v>5.26</v>
-      </c>
-      <c r="D4">
-        <v>1.77</v>
-      </c>
-      <c r="E4">
-        <v>8.6999999999999994E-2</v>
+      <c r="B4" s="1">
+        <v>8.2608695652173907</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.2670807453416146</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.0993788819875776</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.4037267080745334E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>13.3</v>
-      </c>
-      <c r="C5">
-        <v>5.26</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>20.7</v>
+      <c r="B5" s="1">
+        <v>8.2608695652173907</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.2670807453416146</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.5900621118012417</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12.857142857142856</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>1.81</v>
-      </c>
-      <c r="C6">
-        <v>1.48</v>
-      </c>
-      <c r="D6">
-        <v>1.61</v>
-      </c>
-      <c r="E6">
-        <v>8.6</v>
+      <c r="B6" s="1">
+        <v>1.1242236024844721</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.91925465838509313</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.341614906832298</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>1.81</v>
-      </c>
-      <c r="C7">
-        <v>1.48</v>
-      </c>
-      <c r="D7">
-        <v>1.61</v>
-      </c>
-      <c r="E7">
-        <v>8.6999999999999994E-2</v>
+      <c r="B7" s="1">
+        <v>1.1242236024844721</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.91925465838509313</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.4037267080745334E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>1.81</v>
-      </c>
-      <c r="C8">
-        <v>1.48</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>20.7</v>
+      <c r="B8" s="1">
+        <v>1.1242236024844721</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.91925465838509313</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.5900621118012417</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12.857142857142856</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>1.81</v>
-      </c>
-      <c r="C9">
-        <v>1.48</v>
-      </c>
-      <c r="D9">
-        <v>2.7</v>
-      </c>
-      <c r="E9">
-        <v>20.3</v>
+      <c r="B9" s="1">
+        <v>1.1242236024844721</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.91925465838509313</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.6770186335403727</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12.608695652173912</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1343,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0254CD71-F21E-4228-B48C-45B88D3C101E}">
   <dimension ref="A2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
